--- a/biology/Botanique/Helianthemum_nummularium/Helianthemum_nummularium.xlsx
+++ b/biology/Botanique/Helianthemum_nummularium/Helianthemum_nummularium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélianthème commun, Hélianthème nummulaire, Hélianthème à feuilles arrondies, Hélianthème jaune,  Hélianthème tomenteux
 L'Hélianthème commun (Helianthemum nummularium) est une plante vivace de la famille des Cistacées.
@@ -513,7 +525,9 @@
           <t>Synonymes[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>H. chamaecistus Mill.
 H. vulgare Gaertn.
@@ -550,7 +564,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un sous-arbrisseau haut de 10 à 40 cm, plus ou moins rampant, aux tiges ligneuses seulement à la base, à feuilles ovales, opposées. Fleurit de mai à septembre.
 </t>
@@ -581,7 +597,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
@@ -621,7 +639,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est protégée en Bretagne (Article 1).
 </t>
@@ -652,9 +672,11 @@
           <t>Plante hôte</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hélianthème commun est la plante hôte de la chenille de l'argus de l'hélianthème (Aricia artaxerxes)[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hélianthème commun est la plante hôte de la chenille de l'argus de l'hélianthème (Aricia artaxerxes).
 </t>
         </is>
       </c>
@@ -683,9 +705,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En France, selon le site de l'académie de Besançon, on peut trouver[3] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En France, selon le site de l'académie de Besançon, on peut trouver :
 H. nummularium var. grandiflorum
 H. nummularium var. nummularium
 H. nummularium var. obscurum
